--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H2">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J2">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>61.17333666415817</v>
+        <v>69.06263025503111</v>
       </c>
       <c r="R2">
-        <v>61.17333666415817</v>
+        <v>621.56367229528</v>
       </c>
       <c r="S2">
-        <v>0.06846439927519574</v>
+        <v>0.07140120796576503</v>
       </c>
       <c r="T2">
-        <v>0.06846439927519574</v>
+        <v>0.07140120796576503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H3">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J3">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>115.7637387216772</v>
+        <v>118.4578024930886</v>
       </c>
       <c r="R3">
-        <v>115.7637387216772</v>
+        <v>1066.120222437798</v>
       </c>
       <c r="S3">
-        <v>0.1295612641328106</v>
+        <v>0.122468984452853</v>
       </c>
       <c r="T3">
-        <v>0.1295612641328106</v>
+        <v>0.1224689844528531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H4">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J4">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>1.850197572285434</v>
+        <v>0.874593088991111</v>
       </c>
       <c r="R4">
-        <v>1.850197572285434</v>
+        <v>7.871337800919999</v>
       </c>
       <c r="S4">
-        <v>0.002070716953407023</v>
+        <v>0.000904208293282111</v>
       </c>
       <c r="T4">
-        <v>0.002070716953407023</v>
+        <v>0.000904208293282111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.4885546493041</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H5">
-        <v>17.4885546493041</v>
+        <v>53.336074</v>
       </c>
       <c r="I5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J5">
-        <v>0.7777725510767359</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5139884018581</v>
+        <v>0.106491</v>
       </c>
       <c r="N5">
-        <v>29.5139884018581</v>
+        <v>0.319473</v>
       </c>
       <c r="O5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q5">
-        <v>516.1569990848227</v>
+        <v>1.893270618778</v>
       </c>
       <c r="R5">
-        <v>516.1569990848227</v>
+        <v>17.039435569002</v>
       </c>
       <c r="S5">
-        <v>0.5776761707153226</v>
+        <v>0.001957379970725816</v>
       </c>
       <c r="T5">
-        <v>0.5776761707153226</v>
+        <v>0.001957379970725816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7623937719335649</v>
+        <v>17.77869133333333</v>
       </c>
       <c r="H6">
-        <v>0.7623937719335649</v>
+        <v>53.336074</v>
       </c>
       <c r="I6">
-        <v>0.03390611521721032</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="J6">
-        <v>0.03390611521721032</v>
+        <v>0.7554955974693992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.49790693918736</v>
+        <v>30.399472</v>
       </c>
       <c r="N6">
-        <v>3.49790693918736</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q6">
-        <v>2.666782465239642</v>
+        <v>540.4628293843093</v>
       </c>
       <c r="R6">
-        <v>2.666782465239642</v>
+        <v>4864.165464458784</v>
       </c>
       <c r="S6">
-        <v>0.002984628098392288</v>
+        <v>0.5587638167867731</v>
       </c>
       <c r="T6">
-        <v>0.002984628098392288</v>
+        <v>0.5587638167867732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H7">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J7">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.61940000434991</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N7">
-        <v>6.61940000434991</v>
+        <v>11.65372</v>
       </c>
       <c r="O7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q7">
-        <v>5.046589337253384</v>
+        <v>3.198407479164444</v>
       </c>
       <c r="R7">
-        <v>5.046589337253384</v>
+        <v>28.78566731248</v>
       </c>
       <c r="S7">
-        <v>0.005648076861664773</v>
+        <v>0.003306710977206699</v>
       </c>
       <c r="T7">
-        <v>0.005648076861664773</v>
+        <v>0.003306710977206698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H8">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J8">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.105794767457187</v>
+        <v>6.662909</v>
       </c>
       <c r="N8">
-        <v>0.105794767457187</v>
+        <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q8">
-        <v>0.08065727181251917</v>
+        <v>5.485981638118666</v>
       </c>
       <c r="R8">
-        <v>0.08065727181251917</v>
+        <v>49.373834743068</v>
       </c>
       <c r="S8">
-        <v>9.027056497076386E-05</v>
+        <v>0.005671746274261602</v>
       </c>
       <c r="T8">
-        <v>9.027056497076386E-05</v>
+        <v>0.005671746274261602</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7623937719335649</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H9">
-        <v>0.7623937719335649</v>
+        <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J9">
-        <v>0.03390611521721032</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.5139884018581</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N9">
-        <v>29.5139884018581</v>
+        <v>0.14758</v>
       </c>
       <c r="O9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q9">
-        <v>22.50128094249608</v>
+        <v>0.04050388852444444</v>
       </c>
       <c r="R9">
-        <v>22.50128094249608</v>
+        <v>0.3645349967199999</v>
       </c>
       <c r="S9">
-        <v>0.0251831396921825</v>
+        <v>4.187541883760418E-05</v>
       </c>
       <c r="T9">
-        <v>0.0251831396921825</v>
+        <v>4.187541883760417E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.23448723098897</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H10">
-        <v>4.23448723098897</v>
+        <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J10">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.49790693918736</v>
+        <v>0.106491</v>
       </c>
       <c r="N10">
-        <v>3.49790693918736</v>
+        <v>0.319473</v>
       </c>
       <c r="O10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q10">
-        <v>14.81184226917659</v>
+        <v>0.08768057174799999</v>
       </c>
       <c r="R10">
-        <v>14.81184226917659</v>
+        <v>0.789125145732</v>
       </c>
       <c r="S10">
-        <v>0.01657722037765327</v>
+        <v>9.064958451216913E-05</v>
       </c>
       <c r="T10">
-        <v>0.01657722037765327</v>
+        <v>9.064958451216913E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.23448723098897</v>
+        <v>0.8233613333333333</v>
       </c>
       <c r="H11">
-        <v>4.23448723098897</v>
+        <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303642</v>
       </c>
       <c r="J11">
-        <v>0.1883213337060537</v>
+        <v>0.03498828180303641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.61940000434991</v>
+        <v>30.399472</v>
       </c>
       <c r="N11">
-        <v>6.61940000434991</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q11">
-        <v>28.02976479522803</v>
+        <v>25.02974979854934</v>
       </c>
       <c r="R11">
-        <v>28.02976479522803</v>
+        <v>225.267748186944</v>
       </c>
       <c r="S11">
-        <v>0.03137054660048802</v>
+        <v>0.02587729954821834</v>
       </c>
       <c r="T11">
-        <v>0.03137054660048802</v>
+        <v>0.02587729954821834</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>4.23448723098897</v>
+        <v>0.007854</v>
       </c>
       <c r="H12">
-        <v>4.23448723098897</v>
+        <v>0.023562</v>
       </c>
       <c r="I12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189685</v>
       </c>
       <c r="J12">
-        <v>0.1883213337060537</v>
+        <v>0.0003337513606189684</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.105794767457187</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N12">
-        <v>0.105794767457187</v>
+        <v>11.65372</v>
       </c>
       <c r="O12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q12">
-        <v>0.4479865919029057</v>
+        <v>0.03050943896</v>
       </c>
       <c r="R12">
-        <v>0.4479865919029057</v>
+        <v>0.27458495064</v>
       </c>
       <c r="S12">
-        <v>0.0005013807415207597</v>
+        <v>3.154254027188721E-05</v>
       </c>
       <c r="T12">
-        <v>0.0005013807415207597</v>
+        <v>3.15425402718872E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.007854</v>
+      </c>
+      <c r="H13">
+        <v>0.023562</v>
+      </c>
+      <c r="I13">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J13">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.662909</v>
+      </c>
+      <c r="N13">
+        <v>19.988727</v>
+      </c>
+      <c r="O13">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P13">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q13">
+        <v>0.052330487286</v>
+      </c>
+      <c r="R13">
+        <v>0.470974385574</v>
+      </c>
+      <c r="S13">
+        <v>5.410248627745125E-05</v>
+      </c>
+      <c r="T13">
+        <v>5.410248627745125E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007854</v>
+      </c>
+      <c r="H14">
+        <v>0.023562</v>
+      </c>
+      <c r="I14">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J14">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.14758</v>
+      </c>
+      <c r="O14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q14">
+        <v>0.00038636444</v>
+      </c>
+      <c r="R14">
+        <v>0.00347727996</v>
+      </c>
+      <c r="S14">
+        <v>3.994473947653722E-07</v>
+      </c>
+      <c r="T14">
+        <v>3.994473947653722E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007854</v>
+      </c>
+      <c r="H15">
+        <v>0.023562</v>
+      </c>
+      <c r="I15">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J15">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.106491</v>
+      </c>
+      <c r="N15">
+        <v>0.319473</v>
+      </c>
+      <c r="O15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q15">
+        <v>0.000836380314</v>
+      </c>
+      <c r="R15">
+        <v>0.007527422826</v>
+      </c>
+      <c r="S15">
+        <v>8.647015689651563E-07</v>
+      </c>
+      <c r="T15">
+        <v>8.647015689651563E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007854</v>
+      </c>
+      <c r="H16">
+        <v>0.023562</v>
+      </c>
+      <c r="I16">
+        <v>0.0003337513606189685</v>
+      </c>
+      <c r="J16">
+        <v>0.0003337513606189684</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.399472</v>
+      </c>
+      <c r="N16">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O16">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P16">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q16">
+        <v>0.238757453088</v>
+      </c>
+      <c r="R16">
+        <v>2.148817077792</v>
+      </c>
+      <c r="S16">
+        <v>0.0002468421851058995</v>
+      </c>
+      <c r="T16">
+        <v>0.0002468421851058995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H17">
+        <v>14.767745</v>
+      </c>
+      <c r="I17">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J17">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N17">
+        <v>11.65372</v>
+      </c>
+      <c r="O17">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P17">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q17">
+        <v>19.12212947348889</v>
+      </c>
+      <c r="R17">
+        <v>172.0991652614</v>
+      </c>
+      <c r="S17">
+        <v>0.01976963718646384</v>
+      </c>
+      <c r="T17">
+        <v>0.01976963718646383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H18">
+        <v>14.767745</v>
+      </c>
+      <c r="I18">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J18">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.662909</v>
+      </c>
+      <c r="N18">
+        <v>19.988727</v>
+      </c>
+      <c r="O18">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P18">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q18">
+        <v>32.79871369006833</v>
+      </c>
+      <c r="R18">
+        <v>295.188423210615</v>
+      </c>
+      <c r="S18">
+        <v>0.03390933372427635</v>
+      </c>
+      <c r="T18">
+        <v>0.03390933372427634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H19">
+        <v>14.767745</v>
+      </c>
+      <c r="I19">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J19">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.14758</v>
+      </c>
+      <c r="O19">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P19">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q19">
+        <v>0.2421582007888889</v>
+      </c>
+      <c r="R19">
+        <v>2.1794238071</v>
+      </c>
+      <c r="S19">
+        <v>0.0002503580878876731</v>
+      </c>
+      <c r="T19">
+        <v>0.0002503580878876729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="H13">
-        <v>4.23448723098897</v>
-      </c>
-      <c r="I13">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="J13">
-        <v>0.1883213337060537</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="N13">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="O13">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="P13">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="Q13">
-        <v>124.9766070232247</v>
-      </c>
-      <c r="R13">
-        <v>124.9766070232247</v>
-      </c>
-      <c r="S13">
-        <v>0.1398721859863917</v>
-      </c>
-      <c r="T13">
-        <v>0.1398721859863917</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H20">
+        <v>14.767745</v>
+      </c>
+      <c r="I20">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J20">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.106491</v>
+      </c>
+      <c r="N20">
+        <v>0.319473</v>
+      </c>
+      <c r="O20">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P20">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q20">
+        <v>0.5242106442650001</v>
+      </c>
+      <c r="R20">
+        <v>4.717895798385</v>
+      </c>
+      <c r="S20">
+        <v>0.0005419613051344258</v>
+      </c>
+      <c r="T20">
+        <v>0.0005419613051344258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.922581666666667</v>
+      </c>
+      <c r="H21">
+        <v>14.767745</v>
+      </c>
+      <c r="I21">
+        <v>0.2091823693669455</v>
+      </c>
+      <c r="J21">
+        <v>0.2091823693669454</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.399472</v>
+      </c>
+      <c r="N21">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O21">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P21">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q21">
+        <v>149.6438835435467</v>
+      </c>
+      <c r="R21">
+        <v>1346.79495189192</v>
+      </c>
+      <c r="S21">
+        <v>0.1547110790631832</v>
+      </c>
+      <c r="T21">
+        <v>0.1547110790631831</v>
       </c>
     </row>
   </sheetData>
